--- a/Server/Game/Game-common/docs/资源操作目录.xlsx
+++ b/Server/Game/Game-common/docs/资源操作目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="15990" windowHeight="7275" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="15990" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -67,11 +66,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>使用道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用道具</t>
+    <t>角色升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +105,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -116,8 +139,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,10 +522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,10 +593,32 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Server/Game/Game-common/docs/资源操作目录.xlsx
+++ b/Server/Game/Game-common/docs/资源操作目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="15990" windowHeight="7245" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="15990" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -58,15 +58,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>使用道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用道具</t>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,19 +102,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻宝</t>
+    <t>拍卖上架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖下架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,10 +531,43 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -522,10 +579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -593,10 +650,10 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -604,10 +661,10 @@
         <v>2005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -615,10 +672,21 @@
         <v>2006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
